--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Run</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>Desktop</t>
+  </si>
+  <si>
+    <t>RMA_Home_Page.png</t>
+  </si>
+  <si>
+    <t>https://rmapppf.mylemonspace.com/en/</t>
+  </si>
+  <si>
+    <t>figd_yWuumbY2wHHCYsmOcexzBkDmiGZKKV8R8fMtXt06</t>
+  </si>
+  <si>
+    <t>XICM5FLPGrCv2RsII61VnE</t>
+  </si>
+  <si>
+    <t>134-68</t>
   </si>
 </sst>
 </file>
@@ -1006,19 +1021,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.5740740740741" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.42857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42592592592593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28703703703704" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.8857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.552380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5555555555556" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.552380952381" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="22.5714285714286" style="1"/>
+    <col min="7" max="7" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="22.5740740740741" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1044,18 +1059,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="28.8" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" s="3"/>
